--- a/testdata/Opencart_ProductList.xlsx
+++ b/testdata/Opencart_ProductList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Workspaces\FRAMEWORK\opencart\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8D8AEE-1296-44E1-B770-51A358FD82B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8524E04-8328-46D9-9801-07DAC4C84E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{127E1E2D-5F58-4957-A8D0-7A57B43B6F7B}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19420" windowHeight="11500" xr2:uid="{127E1E2D-5F58-4957-A8D0-7A57B43B6F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61427507-F3AD-4B70-B44C-E91359C9040D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
